--- a/Luban/ExcelConfig/Datas/ability_assist.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_assist.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="522"/>
+    <workbookView windowHeight="17680" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -25,12 +38,6 @@
     <t>alias</t>
   </si>
   <si>
-    <t>view_name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
@@ -79,12 +86,6 @@
     <t>别名</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>标签</t>
   </si>
   <si>
@@ -94,19 +95,7 @@
     <t>短剑</t>
   </si>
   <si>
-    <t>duanjian</t>
-  </si>
-  <si>
-    <t>增加攻速</t>
-  </si>
-  <si>
     <t>袖剑</t>
-  </si>
-  <si>
-    <t>xiujian</t>
-  </si>
-  <si>
-    <t>增加目标数</t>
   </si>
   <si>
     <t>目标数</t>
@@ -121,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -737,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -745,22 +734,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1080,78 +1059,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="7" style="2" customWidth="1"/>
-    <col min="15" max="15" width="6" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
-    <col min="18" max="19" width="7" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6" style="2" customWidth="1"/>
-    <col min="21" max="21" width="4.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.875" style="2" customWidth="1"/>
-    <col min="23" max="24" width="7" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="6.75" style="2" customWidth="1"/>
-    <col min="30" max="30" width="6" style="2" customWidth="1"/>
-    <col min="31" max="31" width="4.875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="28.875" style="3" customWidth="1"/>
-    <col min="33" max="33" width="41.25" style="3" customWidth="1"/>
-    <col min="34" max="34" width="22.875" style="3" customWidth="1"/>
-    <col min="35" max="35" width="27" style="3" customWidth="1"/>
-    <col min="36" max="36" width="10" style="3" customWidth="1"/>
-    <col min="37" max="38" width="8.875" style="3" customWidth="1"/>
-    <col min="39" max="44" width="10.875" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.875" style="3" customWidth="1"/>
-    <col min="46" max="50" width="8.875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="13.25" style="3" customWidth="1"/>
-    <col min="52" max="52" width="10" style="3" customWidth="1"/>
-    <col min="53" max="53" width="8.875" style="3" customWidth="1"/>
-    <col min="54" max="54" width="8.25" style="3" customWidth="1"/>
-    <col min="55" max="55" width="8.875" style="3" customWidth="1"/>
-    <col min="56" max="56" width="10" style="3" customWidth="1"/>
-    <col min="57" max="57" width="8.875" style="3" customWidth="1"/>
-    <col min="58" max="58" width="60.125" style="3" customWidth="1"/>
-    <col min="59" max="59" width="8.875" style="3" customWidth="1"/>
-    <col min="60" max="60" width="10" style="3" customWidth="1"/>
-    <col min="61" max="61" width="8.875" style="3" customWidth="1"/>
-    <col min="62" max="62" width="43.125" style="3" customWidth="1"/>
-    <col min="63" max="63" width="32.875" style="3" customWidth="1"/>
-    <col min="64" max="64" width="10" style="3" customWidth="1"/>
-    <col min="65" max="65" width="8.875" style="3" customWidth="1"/>
-    <col min="66" max="66" width="15.375" style="3" customWidth="1"/>
-    <col min="67" max="67" width="8.875" style="3" customWidth="1"/>
-    <col min="68" max="68" width="10" style="3" customWidth="1"/>
-    <col min="69" max="69" width="8.875" style="3" customWidth="1"/>
-    <col min="70" max="70" width="8.25" style="3" customWidth="1"/>
-    <col min="71" max="71" width="8.875" style="3" customWidth="1"/>
-    <col min="72" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="38.4166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="7" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="2" customWidth="1"/>
+    <col min="10" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="2" customWidth="1"/>
+    <col min="16" max="17" width="7" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6" style="2" customWidth="1"/>
+    <col min="19" max="19" width="4.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.875" style="2" customWidth="1"/>
+    <col min="21" max="22" width="7" style="2" customWidth="1"/>
+    <col min="23" max="23" width="6" style="2" customWidth="1"/>
+    <col min="24" max="24" width="4.875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="6.75" style="2" customWidth="1"/>
+    <col min="28" max="28" width="6" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="28.875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="41.25" style="2" customWidth="1"/>
+    <col min="32" max="32" width="22.875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="27" style="2" customWidth="1"/>
+    <col min="34" max="34" width="10" style="2" customWidth="1"/>
+    <col min="35" max="36" width="8.875" style="2" customWidth="1"/>
+    <col min="37" max="42" width="10.875" style="2" customWidth="1"/>
+    <col min="43" max="43" width="12.875" style="2" customWidth="1"/>
+    <col min="44" max="48" width="8.875" style="2" customWidth="1"/>
+    <col min="49" max="49" width="13.25" style="2" customWidth="1"/>
+    <col min="50" max="50" width="10" style="2" customWidth="1"/>
+    <col min="51" max="51" width="8.875" style="2" customWidth="1"/>
+    <col min="52" max="52" width="8.25" style="2" customWidth="1"/>
+    <col min="53" max="53" width="8.875" style="2" customWidth="1"/>
+    <col min="54" max="54" width="10" style="2" customWidth="1"/>
+    <col min="55" max="55" width="8.875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="60.125" style="2" customWidth="1"/>
+    <col min="57" max="57" width="8.875" style="2" customWidth="1"/>
+    <col min="58" max="58" width="10" style="2" customWidth="1"/>
+    <col min="59" max="59" width="8.875" style="2" customWidth="1"/>
+    <col min="60" max="60" width="43.125" style="2" customWidth="1"/>
+    <col min="61" max="61" width="32.875" style="2" customWidth="1"/>
+    <col min="62" max="62" width="10" style="2" customWidth="1"/>
+    <col min="63" max="63" width="8.875" style="2" customWidth="1"/>
+    <col min="64" max="64" width="15.375" style="2" customWidth="1"/>
+    <col min="65" max="65" width="8.875" style="2" customWidth="1"/>
+    <col min="66" max="66" width="10" style="2" customWidth="1"/>
+    <col min="67" max="67" width="8.875" style="2" customWidth="1"/>
+    <col min="68" max="68" width="8.25" style="2" customWidth="1"/>
+    <col min="69" max="69" width="8.875" style="2" customWidth="1"/>
+    <col min="70" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:71">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,680 +1144,223 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:71">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:71">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4">
+      <c r="T3" s="1">
         <v>3</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4">
+      <c r="Y3" s="1">
         <v>4</v>
       </c>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:71">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA4" s="6" t="s">
+      <c r="Y4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:71">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:71">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:71">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:71">
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="5"/>
-      <c r="BS8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
-      <c r="AY9" s="5"/>
-      <c r="AZ9" s="5"/>
-      <c r="BA9" s="5"/>
-      <c r="BB9" s="5"/>
-      <c r="BC9" s="5"/>
-      <c r="BD9" s="5"/>
-      <c r="BE9" s="5"/>
-      <c r="BF9" s="5"/>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="5"/>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="5"/>
-      <c r="BN9" s="5"/>
-      <c r="BO9" s="5"/>
-      <c r="BP9" s="5"/>
-      <c r="BQ9" s="5"/>
-      <c r="BR9" s="5"/>
-      <c r="BS9" s="5"/>
-    </row>
-    <row r="12" spans="2:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="2">
         <v>10001</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="2:10">
+        <v>21</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="2">
         <v>10002</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="2">
+        <v>25</v>
+      </c>
+      <c r="H13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="17:17">
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="25" spans="17:17">
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="29" spans="17:17">
-      <c r="Q29" s="7"/>
-    </row>
-    <row r="35" spans="17:17">
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="40" spans="17:17">
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="45" spans="17:17">
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="49" spans="17:17">
-      <c r="Q49" s="7"/>
+    <row r="20" spans="15:15">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="25" spans="15:15">
+      <c r="O25" s="4"/>
+    </row>
+    <row r="29" spans="15:15">
+      <c r="O29" s="4"/>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="4"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G1:AE1"/>
-    <mergeCell ref="G2:AE2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="E1:AC1"/>
+    <mergeCell ref="E2:AC2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
